--- a/static/core/system/org/importTemplete/人员导入.xlsx
+++ b/static/core/system/org/importTemplete/人员导入.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="653">
   <si>
     <t>员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,22 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否冻结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户信息1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,453 +123,2245 @@
     <t>用户信息20</t>
   </si>
   <si>
-    <t>兼职部门ID</t>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>test18</t>
+  </si>
+  <si>
+    <t>test19</t>
+  </si>
+  <si>
+    <t>test20</t>
+  </si>
+  <si>
+    <t>test21</t>
+  </si>
+  <si>
+    <t>test22</t>
+  </si>
+  <si>
+    <t>test23</t>
+  </si>
+  <si>
+    <t>test24</t>
+  </si>
+  <si>
+    <t>test25</t>
+  </si>
+  <si>
+    <t>测试用户2</t>
+  </si>
+  <si>
+    <t>测试用户3</t>
+  </si>
+  <si>
+    <t>测试用户4</t>
+  </si>
+  <si>
+    <t>测试用户5</t>
+  </si>
+  <si>
+    <t>测试用户6</t>
+  </si>
+  <si>
+    <t>测试用户7</t>
+  </si>
+  <si>
+    <t>测试用户8</t>
+  </si>
+  <si>
+    <t>测试用户9</t>
+  </si>
+  <si>
+    <t>测试用户10</t>
+  </si>
+  <si>
+    <t>测试用户11</t>
+  </si>
+  <si>
+    <t>测试用户12</t>
+  </si>
+  <si>
+    <t>测试用户13</t>
+  </si>
+  <si>
+    <t>测试用户14</t>
+  </si>
+  <si>
+    <t>测试用户15</t>
+  </si>
+  <si>
+    <t>测试用户16</t>
+  </si>
+  <si>
+    <t>测试用户17</t>
+  </si>
+  <si>
+    <t>测试用户18</t>
+  </si>
+  <si>
+    <t>测试用户19</t>
+  </si>
+  <si>
+    <t>测试用户20</t>
+  </si>
+  <si>
+    <t>测试用户21</t>
+  </si>
+  <si>
+    <t>测试用户22</t>
+  </si>
+  <si>
+    <t>测试用户23</t>
+  </si>
+  <si>
+    <t>测试用户24</t>
+  </si>
+  <si>
+    <t>测试用户25</t>
+  </si>
+  <si>
+    <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>test13</t>
-  </si>
-  <si>
-    <t>test14</t>
-  </si>
-  <si>
-    <t>test15</t>
-  </si>
-  <si>
-    <t>test16</t>
-  </si>
-  <si>
-    <t>test17</t>
-  </si>
-  <si>
-    <t>test18</t>
-  </si>
-  <si>
-    <t>test19</t>
-  </si>
-  <si>
-    <t>test20</t>
-  </si>
-  <si>
-    <t>test21</t>
-  </si>
-  <si>
-    <t>test22</t>
-  </si>
-  <si>
-    <t>test23</t>
-  </si>
-  <si>
-    <t>test24</t>
-  </si>
-  <si>
-    <t>test25</t>
+    <t>010-8293729</t>
+  </si>
+  <si>
+    <t>010-8293730</t>
+  </si>
+  <si>
+    <t>010-8293731</t>
+  </si>
+  <si>
+    <t>010-8293732</t>
+  </si>
+  <si>
+    <t>010-8293733</t>
+  </si>
+  <si>
+    <t>010-8293734</t>
+  </si>
+  <si>
+    <t>010-8293735</t>
+  </si>
+  <si>
+    <t>010-8293736</t>
+  </si>
+  <si>
+    <t>010-8293737</t>
+  </si>
+  <si>
+    <t>010-8293738</t>
+  </si>
+  <si>
+    <t>010-8293739</t>
+  </si>
+  <si>
+    <t>010-8293740</t>
+  </si>
+  <si>
+    <t>010-8293741</t>
+  </si>
+  <si>
+    <t>010-8293742</t>
+  </si>
+  <si>
+    <t>010-8293743</t>
+  </si>
+  <si>
+    <t>010-8293744</t>
+  </si>
+  <si>
+    <t>010-8293745</t>
+  </si>
+  <si>
+    <t>010-8293746</t>
+  </si>
+  <si>
+    <t>010-8293747</t>
+  </si>
+  <si>
+    <t>010-8293748</t>
+  </si>
+  <si>
+    <t>010-8293749</t>
+  </si>
+  <si>
+    <t>010-8293750</t>
+  </si>
+  <si>
+    <t>010-8293751</t>
+  </si>
+  <si>
+    <t>010-8293752</t>
+  </si>
+  <si>
+    <t>010-8293847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8293848</t>
+  </si>
+  <si>
+    <t>010-8293849</t>
+  </si>
+  <si>
+    <t>010-8293850</t>
+  </si>
+  <si>
+    <t>010-8293851</t>
+  </si>
+  <si>
+    <t>010-8293852</t>
+  </si>
+  <si>
+    <t>010-8293853</t>
+  </si>
+  <si>
+    <t>010-8293854</t>
+  </si>
+  <si>
+    <t>010-8293855</t>
+  </si>
+  <si>
+    <t>010-8293856</t>
+  </si>
+  <si>
+    <t>010-8293857</t>
+  </si>
+  <si>
+    <t>010-8293858</t>
+  </si>
+  <si>
+    <t>010-8293859</t>
+  </si>
+  <si>
+    <t>010-8293860</t>
+  </si>
+  <si>
+    <t>010-8293861</t>
+  </si>
+  <si>
+    <t>010-8293862</t>
+  </si>
+  <si>
+    <t>010-8293863</t>
+  </si>
+  <si>
+    <t>010-8293864</t>
+  </si>
+  <si>
+    <t>010-8293865</t>
+  </si>
+  <si>
+    <t>010-8293866</t>
+  </si>
+  <si>
+    <t>010-8293867</t>
+  </si>
+  <si>
+    <t>010-8293868</t>
+  </si>
+  <si>
+    <t>010-8293869</t>
+  </si>
+  <si>
+    <t>010-8293870</t>
+  </si>
+  <si>
+    <t>010-8293871</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2@gmail.com</t>
+  </si>
+  <si>
+    <t>test3@gmail.com</t>
+  </si>
+  <si>
+    <t>test4@gmail.com</t>
+  </si>
+  <si>
+    <t>test5@gmail.com</t>
+  </si>
+  <si>
+    <t>test6@gmail.com</t>
+  </si>
+  <si>
+    <t>test7@gmail.com</t>
+  </si>
+  <si>
+    <t>test8@gmail.com</t>
+  </si>
+  <si>
+    <t>test9@gmail.com</t>
+  </si>
+  <si>
+    <t>test10@gmail.com</t>
+  </si>
+  <si>
+    <t>test11@gmail.com</t>
+  </si>
+  <si>
+    <t>test12@gmail.com</t>
+  </si>
+  <si>
+    <t>test13@gmail.com</t>
+  </si>
+  <si>
+    <t>test14@gmail.com</t>
+  </si>
+  <si>
+    <t>test15@gmail.com</t>
+  </si>
+  <si>
+    <t>test16@gmail.com</t>
+  </si>
+  <si>
+    <t>test17@gmail.com</t>
+  </si>
+  <si>
+    <t>test18@gmail.com</t>
+  </si>
+  <si>
+    <t>test19@gmail.com</t>
+  </si>
+  <si>
+    <t>test20@gmail.com</t>
+  </si>
+  <si>
+    <t>test21@gmail.com</t>
+  </si>
+  <si>
+    <t>test22@gmail.com</t>
+  </si>
+  <si>
+    <t>test23@gmail.com</t>
+  </si>
+  <si>
+    <t>test24@gmail.com</t>
+  </si>
+  <si>
+    <t>test25@gmail.com</t>
+  </si>
+  <si>
+    <t>董事长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总裁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW002</t>
+  </si>
+  <si>
+    <t>ZW003</t>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW004</t>
+  </si>
+  <si>
+    <t>ZW005</t>
+  </si>
+  <si>
+    <t>ZW006</t>
+  </si>
+  <si>
+    <t>ZW007</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>部门编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职部门编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D004;D005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>D005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>D007</t>
+  </si>
+  <si>
+    <t>D008</t>
+  </si>
+  <si>
+    <t>所属角色编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangyang</t>
+  </si>
+  <si>
+    <t>renbin</t>
+  </si>
+  <si>
+    <t>duanyf</t>
+  </si>
+  <si>
+    <t>wangxb</t>
+  </si>
+  <si>
+    <t>wenah</t>
+  </si>
+  <si>
+    <t>lils</t>
+  </si>
+  <si>
+    <t>yanlijie</t>
+  </si>
+  <si>
+    <t>qishuang</t>
+  </si>
+  <si>
+    <t>zhaobc</t>
+  </si>
+  <si>
+    <t>lixiang</t>
+  </si>
+  <si>
+    <t>wangdm</t>
+  </si>
+  <si>
+    <t>liupy</t>
+  </si>
+  <si>
+    <t>hudong</t>
+  </si>
+  <si>
+    <t>liwei</t>
+  </si>
+  <si>
+    <t>yanglf</t>
+  </si>
+  <si>
+    <t>baisong</t>
+  </si>
+  <si>
+    <t>guojl</t>
+  </si>
+  <si>
+    <t>huyun</t>
+  </si>
+  <si>
+    <t>linchh</t>
+  </si>
+  <si>
+    <t>tangbin</t>
+  </si>
+  <si>
+    <t>wangqingli</t>
+  </si>
+  <si>
+    <t>yangming</t>
+  </si>
+  <si>
+    <t>wangdong</t>
+  </si>
+  <si>
+    <t>xuly</t>
+  </si>
+  <si>
+    <t>ganbing</t>
+  </si>
+  <si>
+    <t>xieshp</t>
+  </si>
+  <si>
+    <t>sunyuan</t>
+  </si>
+  <si>
+    <t>yangxiao</t>
+  </si>
+  <si>
+    <t>zhouyi</t>
+  </si>
+  <si>
+    <t>sunqm</t>
+  </si>
+  <si>
+    <t>liyy</t>
+  </si>
+  <si>
+    <t>wangqs</t>
+  </si>
+  <si>
+    <t>gaodsh</t>
+  </si>
+  <si>
+    <t>wangjinqiu</t>
+  </si>
+  <si>
+    <t>liangjing</t>
+  </si>
+  <si>
+    <t>zengzhq</t>
+  </si>
+  <si>
+    <t>yang_wei</t>
+  </si>
+  <si>
+    <t>jiazhihui</t>
+  </si>
+  <si>
+    <t>chengh</t>
+  </si>
+  <si>
+    <t>liqi</t>
+  </si>
+  <si>
+    <t>liaolx</t>
+  </si>
+  <si>
+    <t>liuxh</t>
+  </si>
+  <si>
+    <t>liuzheng</t>
+  </si>
+  <si>
+    <t>renkg</t>
+  </si>
+  <si>
+    <t>suchj</t>
+  </si>
+  <si>
+    <t>hanning</t>
+  </si>
+  <si>
+    <t>wangbb</t>
+  </si>
+  <si>
+    <t>wanggh</t>
+  </si>
+  <si>
+    <t>wang_yong</t>
+  </si>
+  <si>
+    <t>zhangty</t>
+  </si>
+  <si>
+    <t>heych</t>
+  </si>
+  <si>
+    <t>wangjch</t>
+  </si>
+  <si>
+    <t>huyanfen</t>
+  </si>
+  <si>
+    <t>pengxf</t>
+  </si>
+  <si>
+    <t>zhoufang</t>
+  </si>
+  <si>
+    <t>mengqw</t>
+  </si>
+  <si>
+    <t>hanchx</t>
+  </si>
+  <si>
+    <t>wuyc</t>
+  </si>
+  <si>
+    <t>zhangyf</t>
+  </si>
+  <si>
+    <t>liyingbo</t>
+  </si>
+  <si>
+    <t>sunxiangxin</t>
+  </si>
+  <si>
+    <t>zhaoxf</t>
+  </si>
+  <si>
+    <t>ligl</t>
+  </si>
+  <si>
+    <t>lvyh</t>
+  </si>
+  <si>
+    <t>huanggy</t>
+  </si>
+  <si>
+    <t>huqs</t>
+  </si>
+  <si>
+    <t>zhulin</t>
+  </si>
+  <si>
+    <t>xieying</t>
+  </si>
+  <si>
+    <t>li.yue</t>
+  </si>
+  <si>
+    <t>liqiuling</t>
+  </si>
+  <si>
+    <t>wang.lei</t>
+  </si>
+  <si>
+    <t>lixh</t>
+  </si>
+  <si>
+    <t>zhuzhx</t>
+  </si>
+  <si>
+    <t>caiqi</t>
+  </si>
+  <si>
+    <t>luzhm</t>
+  </si>
+  <si>
+    <t>raoam</t>
+  </si>
+  <si>
+    <t>sundl</t>
+  </si>
+  <si>
+    <t>wugw</t>
+  </si>
+  <si>
+    <t>zhengmj</t>
+  </si>
+  <si>
+    <t>doujie</t>
+  </si>
+  <si>
+    <t>yangying</t>
+  </si>
+  <si>
+    <t>wangjx</t>
+  </si>
+  <si>
+    <t>wang_yang</t>
+  </si>
+  <si>
+    <t>zhuyj</t>
+  </si>
+  <si>
+    <t>zhangcong</t>
+  </si>
+  <si>
+    <t>huoming</t>
+  </si>
+  <si>
+    <t>liubing</t>
+  </si>
+  <si>
+    <t>weixuan</t>
+  </si>
+  <si>
+    <t>yuanming</t>
+  </si>
+  <si>
+    <t>sunlj</t>
+  </si>
+  <si>
+    <t>wangxm</t>
+  </si>
+  <si>
+    <t>lixf</t>
+  </si>
+  <si>
+    <t>liuyin</t>
+  </si>
+  <si>
+    <t>li.yan</t>
+  </si>
+  <si>
+    <t>sunqch</t>
+  </si>
+  <si>
+    <t>wangyb</t>
+  </si>
+  <si>
+    <t>mawen</t>
+  </si>
+  <si>
+    <t>wangjl</t>
+  </si>
+  <si>
+    <t>hanmeng</t>
+  </si>
+  <si>
+    <t>zhangzheng</t>
+  </si>
+  <si>
+    <t>yangxy</t>
+  </si>
+  <si>
+    <t>liuzhsh</t>
+  </si>
+  <si>
+    <t>yiying</t>
+  </si>
+  <si>
+    <t>shenqiao</t>
+  </si>
+  <si>
+    <t>weijy</t>
+  </si>
+  <si>
+    <t>lianghr</t>
+  </si>
+  <si>
+    <t>huixin</t>
+  </si>
+  <si>
+    <t>li_wei</t>
+  </si>
+  <si>
+    <t>yuebq</t>
+  </si>
+  <si>
+    <t>liu_ye</t>
+  </si>
+  <si>
+    <t>yuanmt</t>
+  </si>
+  <si>
+    <t>zuodt</t>
+  </si>
+  <si>
+    <t>hubo</t>
+  </si>
+  <si>
+    <t>yinxiaofei</t>
+  </si>
+  <si>
+    <t>汪洋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任斌</t>
+  </si>
+  <si>
+    <t>段阳帆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓斌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闻爱华</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李立松</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕立洁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁爽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵保翠</t>
+  </si>
+  <si>
+    <t>高晓彤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李翔</t>
+  </si>
+  <si>
+    <t>王东明</t>
+  </si>
+  <si>
+    <t>刘佩源</t>
+  </si>
+  <si>
+    <t>胡东</t>
+  </si>
+  <si>
+    <t>李伟(公共)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨龙飞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏松</t>
+  </si>
+  <si>
+    <t>郭金龙</t>
+  </si>
+  <si>
+    <t>胡云</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔺春华</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐彬</t>
+  </si>
+  <si>
+    <t>王庆礼</t>
+  </si>
+  <si>
+    <t>杨茗</t>
+  </si>
+  <si>
+    <t>王东</t>
+  </si>
+  <si>
+    <t>许立言</t>
+  </si>
+  <si>
+    <t>甘兵</t>
+  </si>
+  <si>
+    <t>谢术平</t>
+  </si>
+  <si>
+    <t>孙媛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨潇</t>
+  </si>
+  <si>
+    <t>周易</t>
+  </si>
+  <si>
+    <t>孙启铭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李艺阳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王青松</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高东升</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金秋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁静</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾中奇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨威</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾智会</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程辉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李奇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖丽霞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘锡辉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘征</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任凯光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏长杰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩宁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王蓓蓓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王光辉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王勇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张天宇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>何永成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王建闯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡艳芬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓飞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周芳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟庆文</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩春晓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴一村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张一凡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李英勃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔祥欣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵雪峰</t>
+  </si>
+  <si>
+    <t>李桂龙</t>
+  </si>
+  <si>
+    <t>吕昱红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄根毅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡巧思</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱林</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢莹</t>
+  </si>
+  <si>
+    <t>李跃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李秋玲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王磊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晓衡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱正兴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡  琪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆正敏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>饶阿明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙丹龙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴光伟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑梦婕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>窦洁</t>
+  </si>
+  <si>
+    <t>杨莹</t>
+  </si>
+  <si>
+    <t>王京霞</t>
+  </si>
+  <si>
+    <t>王杨</t>
+  </si>
+  <si>
+    <t>朱宇菁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张丛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏萱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙立京</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王习梅</t>
+  </si>
+  <si>
+    <t>李晓峰</t>
+  </si>
+  <si>
+    <t>刘寅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李炎</t>
+  </si>
+  <si>
+    <t>孙启超</t>
+  </si>
+  <si>
+    <t>王玉斌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>马文</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王佳梁</t>
+  </si>
+  <si>
+    <t>韩猛</t>
+  </si>
+  <si>
+    <t>张峥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晓宇</t>
+  </si>
+  <si>
+    <t>刘占山</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚冠红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>易影</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈峤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏计业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁恒瑞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠昕</t>
+  </si>
+  <si>
+    <t>李薇</t>
+  </si>
+  <si>
+    <t>岳冰清</t>
+  </si>
+  <si>
+    <t>刘晔</t>
+  </si>
+  <si>
+    <t>袁梦婷</t>
+  </si>
+  <si>
+    <t>左丹婷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡波</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴晓菲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18618303837</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15201458745</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13581827895</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13520672338
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13811740321</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15110226952</t>
+  </si>
+  <si>
+    <t>13552945831</t>
+  </si>
+  <si>
+    <t>15901024131</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15010056353</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13511032152</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15101079339</t>
+  </si>
+  <si>
+    <t>15101166260</t>
+  </si>
+  <si>
+    <t>18810069007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">18210031641 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13001263069</t>
+  </si>
+  <si>
+    <t>18710088055</t>
+  </si>
+  <si>
+    <t>18001290117</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18745156007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18963015116</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13522164602</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18601041095</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13466389475</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18646646184</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15011284843</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13501280964</t>
+  </si>
+  <si>
+    <t>15210302591</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15810689616</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15822754789</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18911221261</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13910621249</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18612299022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18501232565</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3520736755</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13621003927</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15110022969</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18510170196</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13522907205</t>
+  </si>
+  <si>
+    <t>18611814619</t>
+  </si>
+  <si>
+    <t>13811186610</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5810833304</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8117</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8118</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8102</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8116</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8119</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8101</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8019</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8113</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8114</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8106</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8105</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8086</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8090</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8089</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8094</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8093</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8097</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8099</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8092</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8095</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8096</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C4--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8098</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8082</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8081</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8083</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8080</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8047</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8059</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8056</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8048</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8049</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8062</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8046</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8058</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8057</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8060</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8029</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C4--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8115</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8017</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4--8014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wangyang@css.com.cn </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>renbin@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>duanyf@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangxb@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wenah@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lils@css.com.cn
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanlijie@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qishuang@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaobc@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lixiang@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangdm@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liupy@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hudong@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liwei@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">yanglf@css.com.cn
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>baisong@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>guojl@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>huyun@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">linchh@css.com.cn 
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangbin@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangqingli@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangming@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangdong@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuly@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ganbing@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xieshp@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sunyuan@css.com.cn 
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangxiao@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhouyi@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunqm@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liyy@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangqs@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaodsh@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangjinqiu@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangjing@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zengzhq@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yang_wei@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiazhihui@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengh@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liqi@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liaolx@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuxh@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuzheng@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>renkg@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>suchj@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanning@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangbb@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanggh@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wang_yong@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangty@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>heych@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangjch@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>huyanfen@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pengxf@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhoufang@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mengqw@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanchx@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuyc@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyf@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liyingbo@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunxiangxin@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaoxf@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ligl@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvyh@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>huanggy@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>huqs@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulin@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xieying@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>li.yue@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liqiuling@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wang.lei@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lixh@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuzhx@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>caiqi@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>luzhm@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>raoam@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sundl@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wugw@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhengmj@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doujie@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangying@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangjx@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wang_yang@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuyj@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangcong@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>huoming@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liubing@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>weixuan@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuanming@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sunlj@css.com.cn 
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangxm@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lixf@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuyin@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>li.yan@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunqch@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangyb@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mawen@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangjl@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanmeng@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangzheng@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangxy@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuzhsh@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiying@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenqiao@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>weijy@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lianghr@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>huixin@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_wei@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuebq@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liu_ye@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuanmt@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuodt@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hubo@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yinxiaofei@css.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaoxt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJJFZX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJJFZX002</t>
+  </si>
+  <si>
+    <t>RJJFZX003</t>
+  </si>
+  <si>
+    <t>RJJFZX004</t>
+  </si>
+  <si>
+    <t>RJJFZX005</t>
+  </si>
+  <si>
+    <t>RJJFZX006</t>
+  </si>
+  <si>
+    <t>RJJFZX007</t>
+  </si>
+  <si>
+    <t>RJJFZX008</t>
   </si>
   <si>
     <t>测试用户1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试用户2</t>
-  </si>
-  <si>
-    <t>测试用户3</t>
-  </si>
-  <si>
-    <t>测试用户4</t>
-  </si>
-  <si>
-    <t>测试用户5</t>
-  </si>
-  <si>
-    <t>测试用户6</t>
-  </si>
-  <si>
-    <t>测试用户7</t>
-  </si>
-  <si>
-    <t>测试用户8</t>
-  </si>
-  <si>
-    <t>测试用户9</t>
-  </si>
-  <si>
-    <t>测试用户10</t>
-  </si>
-  <si>
-    <t>测试用户11</t>
-  </si>
-  <si>
-    <t>测试用户12</t>
-  </si>
-  <si>
-    <t>测试用户13</t>
-  </si>
-  <si>
-    <t>测试用户14</t>
-  </si>
-  <si>
-    <t>测试用户15</t>
-  </si>
-  <si>
-    <t>测试用户16</t>
-  </si>
-  <si>
-    <t>测试用户17</t>
-  </si>
-  <si>
-    <t>测试用户18</t>
-  </si>
-  <si>
-    <t>测试用户19</t>
-  </si>
-  <si>
-    <t>测试用户20</t>
-  </si>
-  <si>
-    <t>测试用户21</t>
-  </si>
-  <si>
-    <t>测试用户22</t>
-  </si>
-  <si>
-    <t>测试用户23</t>
-  </si>
-  <si>
-    <t>测试用户24</t>
-  </si>
-  <si>
-    <t>测试用户25</t>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>010-8293728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0001;R0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0001;R0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副总裁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-8293728</t>
+    <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-8293729</t>
-  </si>
-  <si>
-    <t>010-8293730</t>
-  </si>
-  <si>
-    <t>010-8293731</t>
-  </si>
-  <si>
-    <t>010-8293732</t>
-  </si>
-  <si>
-    <t>010-8293733</t>
-  </si>
-  <si>
-    <t>010-8293734</t>
-  </si>
-  <si>
-    <t>010-8293735</t>
-  </si>
-  <si>
-    <t>010-8293736</t>
-  </si>
-  <si>
-    <t>010-8293737</t>
-  </si>
-  <si>
-    <t>010-8293738</t>
-  </si>
-  <si>
-    <t>010-8293739</t>
-  </si>
-  <si>
-    <t>010-8293740</t>
-  </si>
-  <si>
-    <t>010-8293741</t>
-  </si>
-  <si>
-    <t>010-8293742</t>
-  </si>
-  <si>
-    <t>010-8293743</t>
-  </si>
-  <si>
-    <t>010-8293744</t>
-  </si>
-  <si>
-    <t>010-8293745</t>
-  </si>
-  <si>
-    <t>010-8293746</t>
-  </si>
-  <si>
-    <t>010-8293747</t>
-  </si>
-  <si>
-    <t>010-8293748</t>
-  </si>
-  <si>
-    <t>010-8293749</t>
-  </si>
-  <si>
-    <t>010-8293750</t>
-  </si>
-  <si>
-    <t>010-8293751</t>
-  </si>
-  <si>
-    <t>010-8293752</t>
-  </si>
-  <si>
-    <t>010-8293847</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-8293848</t>
-  </si>
-  <si>
-    <t>010-8293849</t>
-  </si>
-  <si>
-    <t>010-8293850</t>
-  </si>
-  <si>
-    <t>010-8293851</t>
-  </si>
-  <si>
-    <t>010-8293852</t>
-  </si>
-  <si>
-    <t>010-8293853</t>
-  </si>
-  <si>
-    <t>010-8293854</t>
-  </si>
-  <si>
-    <t>010-8293855</t>
-  </si>
-  <si>
-    <t>010-8293856</t>
-  </si>
-  <si>
-    <t>010-8293857</t>
-  </si>
-  <si>
-    <t>010-8293858</t>
-  </si>
-  <si>
-    <t>010-8293859</t>
-  </si>
-  <si>
-    <t>010-8293860</t>
-  </si>
-  <si>
-    <t>010-8293861</t>
-  </si>
-  <si>
-    <t>010-8293862</t>
-  </si>
-  <si>
-    <t>010-8293863</t>
-  </si>
-  <si>
-    <t>010-8293864</t>
-  </si>
-  <si>
-    <t>010-8293865</t>
-  </si>
-  <si>
-    <t>010-8293866</t>
-  </si>
-  <si>
-    <t>010-8293867</t>
-  </si>
-  <si>
-    <t>010-8293868</t>
-  </si>
-  <si>
-    <t>010-8293869</t>
-  </si>
-  <si>
-    <t>010-8293870</t>
-  </si>
-  <si>
-    <t>010-8293871</t>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2@gmail.com</t>
-  </si>
-  <si>
-    <t>test3@gmail.com</t>
-  </si>
-  <si>
-    <t>test4@gmail.com</t>
-  </si>
-  <si>
-    <t>test5@gmail.com</t>
-  </si>
-  <si>
-    <t>test6@gmail.com</t>
-  </si>
-  <si>
-    <t>test7@gmail.com</t>
-  </si>
-  <si>
-    <t>test8@gmail.com</t>
-  </si>
-  <si>
-    <t>test9@gmail.com</t>
-  </si>
-  <si>
-    <t>test10@gmail.com</t>
-  </si>
-  <si>
-    <t>test11@gmail.com</t>
-  </si>
-  <si>
-    <t>test12@gmail.com</t>
-  </si>
-  <si>
-    <t>test13@gmail.com</t>
-  </si>
-  <si>
-    <t>test14@gmail.com</t>
-  </si>
-  <si>
-    <t>test15@gmail.com</t>
-  </si>
-  <si>
-    <t>test16@gmail.com</t>
-  </si>
-  <si>
-    <t>test17@gmail.com</t>
-  </si>
-  <si>
-    <t>test18@gmail.com</t>
-  </si>
-  <si>
-    <t>test19@gmail.com</t>
-  </si>
-  <si>
-    <t>test20@gmail.com</t>
-  </si>
-  <si>
-    <t>test21@gmail.com</t>
-  </si>
-  <si>
-    <t>test22@gmail.com</t>
-  </si>
-  <si>
-    <t>test23@gmail.com</t>
-  </si>
-  <si>
-    <t>test24@gmail.com</t>
-  </si>
-  <si>
-    <t>test25@gmail.com</t>
-  </si>
-  <si>
-    <t>董事长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZW001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总裁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZW002</t>
-  </si>
-  <si>
-    <t>副总裁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZW003</t>
-  </si>
-  <si>
-    <t>总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZW004</t>
-  </si>
-  <si>
-    <t>经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZW005</t>
-  </si>
-  <si>
-    <t>副经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZW006</t>
-  </si>
-  <si>
-    <t>科长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZW007</t>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +2369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +2399,85 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -670,11 +2525,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -700,9 +2565,149 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="10">
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 4 2" xfId="6"/>
+    <cellStyle name="常规 5" xfId="3"/>
+    <cellStyle name="常规_Sheet1" xfId="5"/>
+    <cellStyle name="常规_Sheet3" xfId="8"/>
+    <cellStyle name="常规_Sheet4" xfId="7"/>
+    <cellStyle name="常规_Sheet4 2" xfId="9"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -711,12 +2716,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -758,7 +2766,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,7 +2801,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1002,23 +3010,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AH142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.5" style="1"/>
     <col min="8" max="8" width="19.75" style="1" customWidth="1"/>
-    <col min="9" max="36" width="13.5" style="1"/>
-    <col min="37" max="16384" width="13.5" style="2"/>
+    <col min="9" max="34" width="13.5" style="1"/>
+    <col min="35" max="16384" width="13.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1053,931 +3061,3321 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>633</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>634</v>
       </c>
       <c r="D2" s="7">
         <v>32438</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>635</v>
       </c>
       <c r="F2" s="1">
         <v>13666788982</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>138</v>
+        <v>636</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>164</v>
+        <v>637</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>634</v>
       </c>
       <c r="D3" s="7">
         <v>32439</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1">
         <v>13666788983</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K3" s="1">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>634</v>
       </c>
       <c r="D4" s="7">
         <v>32440</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1">
         <v>13666788984</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>167</v>
+        <v>640</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="1">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7">
         <v>32441</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1">
         <v>13666788985</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="1">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>634</v>
       </c>
       <c r="D6" s="7">
         <v>32442</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1">
         <v>13666788986</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>171</v>
+        <v>641</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7">
         <v>32443</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1">
         <v>13666788987</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>173</v>
+        <v>643</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K7" s="1">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>644</v>
       </c>
       <c r="D8" s="7">
         <v>32444</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1">
         <v>13666788988</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>175</v>
+        <v>645</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>644</v>
       </c>
       <c r="D9" s="7">
         <v>32445</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F9" s="1">
         <v>13666788989</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7">
         <v>32446</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1">
         <v>13666788990</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>644</v>
       </c>
       <c r="D11" s="7">
         <v>32447</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F11" s="1">
         <v>13666788991</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" s="1">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>648</v>
       </c>
       <c r="D12" s="7">
         <v>32448</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1">
         <v>13666788992</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="1">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>644</v>
       </c>
       <c r="D13" s="7">
         <v>32449</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F13" s="1">
         <v>13666788993</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>644</v>
       </c>
       <c r="D14" s="7">
         <v>32450</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1">
         <v>13666788994</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="1">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>634</v>
       </c>
       <c r="D15" s="7">
         <v>32451</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1">
         <v>13666788995</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="1">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
         <v>32452</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1">
         <v>13666788996</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K16" s="1">
         <v>100</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="D17" s="7">
         <v>32453</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1">
         <v>13666788997</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="K17" s="1">
         <v>100</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>651</v>
       </c>
       <c r="D18" s="7">
         <v>32454</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F18" s="1">
         <v>13666788998</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K18" s="1">
         <v>100</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="D19" s="7">
         <v>32455</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F19" s="1">
         <v>13666788999</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K19" s="1">
         <v>100</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>621</v>
       </c>
       <c r="D20" s="7">
         <v>32456</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1">
         <v>13666789000</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="K20" s="1">
         <v>100</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="D21" s="7">
         <v>32457</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F21" s="1">
         <v>13666789001</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K21" s="1">
         <v>100</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>621</v>
       </c>
       <c r="D22" s="7">
         <v>32458</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F22" s="1">
         <v>13666789002</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K22" s="1">
         <v>100</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="D23" s="7">
         <v>32459</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1">
         <v>13666789003</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K23" s="1">
         <v>100</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="D24" s="7">
         <v>32460</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F24" s="1">
         <v>13666789004</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K24" s="1">
         <v>100</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>652</v>
       </c>
       <c r="D25" s="7">
         <v>32461</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1">
         <v>13666789005</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K25" s="1">
         <v>100</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>652</v>
       </c>
       <c r="D26" s="7">
         <v>32462</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F26" s="1">
         <v>13666789006</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K26" s="1">
         <v>100</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.25">
+      <c r="A27" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="7">
+        <v>32438</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="F27" s="22">
+        <v>13910238901</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.25">
+      <c r="A28" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="7">
+        <v>32439</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="F28" s="23">
+        <v>13810803615</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.25">
+      <c r="A29" s="9" t="s">
         <v>177</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="7">
+        <v>32440</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>509</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.25">
+      <c r="A30" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="7">
+        <v>32441</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="F30" s="11">
+        <v>13121243842</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="L30" s="52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.25">
+      <c r="A31" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D31" s="7">
+        <v>32442</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="L31" s="52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14.25">
+      <c r="A32" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="7">
+        <v>32443</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="L32" s="52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="14.25">
+      <c r="A33" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D33" s="7">
+        <v>32444</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="L33" s="52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="14.25">
+      <c r="A34" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D34" s="7">
+        <v>32445</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="F34" s="16">
+        <v>13810898570</v>
+      </c>
+      <c r="H34" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="L34" s="52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14.25">
+      <c r="A35" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D35" s="7">
+        <v>32446</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="22">
+        <v>13681155587</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="L35" s="52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="14.25">
+      <c r="A36" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D36" s="7">
+        <v>32447</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="22"/>
+      <c r="H36" s="51"/>
+      <c r="L36" s="52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="14.25">
+      <c r="A37" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="7">
+        <v>32448</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="F37" s="31">
+        <v>18601190913</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>516</v>
+      </c>
+      <c r="L37" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14.25">
+      <c r="A38" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="7">
+        <v>32449</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="F38" s="31">
+        <v>13901136731</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="L38" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="14.25">
+      <c r="A39" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="7">
+        <v>32450</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="F39" s="31">
+        <v>13910215011</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="L39" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14.25">
+      <c r="A40" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="7">
+        <v>32451</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="F40" s="32">
+        <v>18511835659</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="L40" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.25">
+      <c r="A41" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="7">
+        <v>32452</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="F41" s="33">
+        <v>13811956220</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>520</v>
+      </c>
+      <c r="L41" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14.25">
+      <c r="A42" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D42" s="7">
+        <v>32453</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="F42" s="30">
+        <v>15801420017</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="L42" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="14.25">
+      <c r="A43" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" s="7">
+        <v>32454</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="F43" s="33">
+        <v>13520594991</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="L43" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="14.25">
+      <c r="A44" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="7">
+        <v>32455</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="F44" s="34">
+        <v>15011123187</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>523</v>
+      </c>
+      <c r="L44" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="14.25">
+      <c r="A45" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="7">
+        <v>32456</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="16">
+        <v>18600010191</v>
+      </c>
+      <c r="H45" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="L45" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="14.25">
+      <c r="A46" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" s="7">
+        <v>32457</v>
+      </c>
+      <c r="E46" s="44"/>
+      <c r="F46" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>525</v>
+      </c>
+      <c r="L46" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="14.25">
+      <c r="A47" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" s="7">
+        <v>32458</v>
+      </c>
+      <c r="E47" s="44"/>
+      <c r="F47" s="35">
+        <v>13661126121</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="L47" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="14.25">
+      <c r="A48" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" s="7">
+        <v>32459</v>
+      </c>
+      <c r="E48" s="44"/>
+      <c r="F48" s="36">
+        <v>18618411286</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="L48" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.25">
+      <c r="A49" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" s="7">
+        <v>32460</v>
+      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="37">
+        <v>13920232176</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="L49" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.25">
+      <c r="A50" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" s="7">
+        <v>32461</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="F50" s="16">
+        <v>13651055203</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="L50" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.25">
+      <c r="A51" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D51" s="7">
+        <v>32462</v>
+      </c>
+      <c r="E51" s="44"/>
+      <c r="F51" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="L51" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="14.25">
+      <c r="A52" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>531</v>
+      </c>
+      <c r="L52" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="14.25">
+      <c r="A53" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E53" s="47"/>
+      <c r="F53" s="13">
+        <v>18613805488</v>
+      </c>
+      <c r="H53" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="L53" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="14.25">
+      <c r="A54" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="F54" s="12">
+        <v>15901032745</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="L54" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14.25">
+      <c r="A55" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="F55" s="16">
+        <v>15810450869</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="L55" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14.25">
+      <c r="A56" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E56" s="47"/>
+      <c r="F56" s="12">
+        <v>15010660348</v>
+      </c>
+      <c r="H56" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="L56" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="14.25">
+      <c r="A57" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E57" s="47"/>
+      <c r="F57" s="12">
+        <v>13366629448</v>
+      </c>
+      <c r="H57" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="L57" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14.25">
+      <c r="A58" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E58" s="47"/>
+      <c r="F58" s="12">
+        <v>18611686859</v>
+      </c>
+      <c r="H58" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="L58" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="14.25">
+      <c r="A59" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E59" s="47"/>
+      <c r="F59" s="38">
+        <v>18810259497</v>
+      </c>
+      <c r="H59" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="L59" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="14.25">
+      <c r="A60" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E60" s="47"/>
+      <c r="F60" s="30">
+        <v>18668070617</v>
+      </c>
+      <c r="H60" s="51" t="s">
+        <v>539</v>
+      </c>
+      <c r="L60" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="14.25">
+      <c r="A61" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" s="47"/>
+      <c r="F61" s="35">
+        <v>15901010680</v>
+      </c>
+      <c r="H61" s="51" t="s">
+        <v>540</v>
+      </c>
+      <c r="L61" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="14.25">
+      <c r="A62" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E62" s="47"/>
+      <c r="F62" s="36">
+        <v>18301232264</v>
+      </c>
+      <c r="H62" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="L62" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="14.25">
+      <c r="A63" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E63" s="47"/>
+      <c r="F63" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="H63" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="L63" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="14.25">
+      <c r="A64" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E64" s="47"/>
+      <c r="F64" s="12">
+        <v>15011296156</v>
+      </c>
+      <c r="H64" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="L64" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="14.25">
+      <c r="A65" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="F65" s="39">
+        <v>13581567056</v>
+      </c>
+      <c r="H65" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="L65" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="14.25">
+      <c r="A66" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>465</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="H66" s="51" t="s">
+        <v>545</v>
+      </c>
+      <c r="L66" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="14.25">
+      <c r="A67" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E67" s="47"/>
+      <c r="F67" s="31">
+        <v>13552812700</v>
+      </c>
+      <c r="H67" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="L67" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="14.25">
+      <c r="A68" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="H68" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="L68" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="14.25">
+      <c r="A69" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="H69" s="51" t="s">
+        <v>548</v>
+      </c>
+      <c r="L69" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="14.25">
+      <c r="A70" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E70" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="H70" s="51" t="s">
+        <v>549</v>
+      </c>
+      <c r="L70" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="14.25">
+      <c r="A71" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E71" s="47"/>
+      <c r="F71" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="H71" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="L71" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="14.25">
+      <c r="A72" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E72" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="H72" s="51" t="s">
+        <v>551</v>
+      </c>
+      <c r="L72" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="14.25">
+      <c r="A73" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E73" s="47"/>
+      <c r="F73" s="31">
+        <v>18511530335</v>
+      </c>
+      <c r="H73" s="51" t="s">
+        <v>552</v>
+      </c>
+      <c r="L73" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="14.25">
+      <c r="A74" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E74" s="47"/>
+      <c r="F74" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="H74" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="L74" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14.25">
+      <c r="A75" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E75" s="47"/>
+      <c r="F75" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="H75" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="L75" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="14.25">
+      <c r="A76" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E76" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="F76" s="16">
+        <v>13671169376</v>
+      </c>
+      <c r="H76" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="L76" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="14.25">
+      <c r="A77" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E77" s="47"/>
+      <c r="F77" s="31">
+        <v>18613885386</v>
+      </c>
+      <c r="H77" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="L77" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="14.25">
+      <c r="A78" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E78" s="47"/>
+      <c r="F78" s="18">
+        <v>18801025585</v>
+      </c>
+      <c r="H78" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="L78" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="14.25">
+      <c r="A79" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="F79" s="12">
+        <v>15110264426</v>
+      </c>
+      <c r="H79" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="L79" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="14.25">
+      <c r="A80" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E80" s="47"/>
+      <c r="F80" s="36">
+        <v>15010618710</v>
+      </c>
+      <c r="H80" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="L80" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="14.25">
+      <c r="A81" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="E81" s="47"/>
+      <c r="F81" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="H81" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="L81" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="14.25">
+      <c r="A82" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E82" s="47"/>
+      <c r="F82" s="40">
+        <v>15510166388</v>
+      </c>
+      <c r="H82" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="L82" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="14.25">
+      <c r="A83" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E83" s="47"/>
+      <c r="F83" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="H83" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="L83" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="14.25">
+      <c r="A84" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" s="47"/>
+      <c r="F84" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="H84" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="L84" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="14.25">
+      <c r="A85" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E85" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="H85" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="L85" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="14.25">
+      <c r="A86" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="E86" s="47"/>
+      <c r="F86" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="H86" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="L86" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="14.25">
+      <c r="A87" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="E87" s="47"/>
+      <c r="F87" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="H87" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="L87" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="14.25">
+      <c r="A88" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="H88" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="L88" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="14.25">
+      <c r="A89" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E89" s="48"/>
+      <c r="F89" s="10">
+        <v>15810573184</v>
+      </c>
+      <c r="H89" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="L89" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="14.25">
+      <c r="A90" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E90" s="48"/>
+      <c r="F90" s="10">
+        <v>15001341924</v>
+      </c>
+      <c r="H90" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="L90" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="14.25">
+      <c r="A91" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E91" s="48"/>
+      <c r="F91" s="12">
+        <v>18910235246</v>
+      </c>
+      <c r="H91" s="51" t="s">
+        <v>570</v>
+      </c>
+      <c r="L91" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="14.25">
+      <c r="A92" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="E92" s="48"/>
+      <c r="F92" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="H92" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="L92" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="14.25">
+      <c r="A93" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E93" s="49"/>
+      <c r="F93" s="38">
+        <v>18610500806</v>
+      </c>
+      <c r="H93" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="L93" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="14.25">
+      <c r="A94" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E94" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="F94" s="23">
+        <v>13693654676</v>
+      </c>
+      <c r="H94" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="L94" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="14.25">
+      <c r="A95" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="F95" s="23">
+        <v>13311201930</v>
+      </c>
+      <c r="H95" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="L95" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="14.25">
+      <c r="A96" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E96" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="F96" s="10">
+        <v>15901082783</v>
+      </c>
+      <c r="H96" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="L96" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="14.25">
+      <c r="A97" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E97" s="46"/>
+      <c r="F97" s="13">
+        <v>18810454066</v>
+      </c>
+      <c r="H97" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="L97" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="14.25">
+      <c r="A98" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E98" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="F98" s="41">
+        <v>15001285758</v>
+      </c>
+      <c r="H98" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="L98" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="14.25">
+      <c r="A99" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="E99" s="44"/>
+      <c r="F99" s="29">
+        <v>13910602662</v>
+      </c>
+      <c r="H99" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="L99" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="14.25">
+      <c r="A100" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E100" s="46"/>
+      <c r="F100" s="29">
+        <v>18616328080</v>
+      </c>
+      <c r="H100" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="L100" s="52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="14.25">
+      <c r="A101" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E101" s="46"/>
+      <c r="F101" s="29">
+        <v>15502188892</v>
+      </c>
+      <c r="H101" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="L101" s="52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="14.25">
+      <c r="A102" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="E102" s="46"/>
+      <c r="F102" s="29">
+        <v>15601688661</v>
+      </c>
+      <c r="H102" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="L102" s="52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="14.25">
+      <c r="A103" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="E103" s="46"/>
+      <c r="F103" s="29">
+        <v>18717925572</v>
+      </c>
+      <c r="H103" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="L103" s="52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="14.25">
+      <c r="A104" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="E104" s="46"/>
+      <c r="F104" s="29">
+        <v>18610016774</v>
+      </c>
+      <c r="H104" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="L104" s="52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="14.25">
+      <c r="A105" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29">
+        <v>13764773645</v>
+      </c>
+      <c r="H105" s="51" t="s">
+        <v>584</v>
+      </c>
+      <c r="L105" s="52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="14.25">
+      <c r="A106" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29">
+        <v>13916271722</v>
+      </c>
+      <c r="H106" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="L106" s="52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="14.25">
+      <c r="A107" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E107" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="F107" s="35">
+        <v>13810520516</v>
+      </c>
+      <c r="H107" s="51" t="s">
+        <v>586</v>
+      </c>
+      <c r="L107" s="52" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="14.25">
+      <c r="A108" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E108" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="F108" s="16">
+        <v>18810448749</v>
+      </c>
+      <c r="H108" s="51" t="s">
+        <v>587</v>
+      </c>
+      <c r="L108" s="52" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="14.25">
+      <c r="A109" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E109" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="F109" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="H109" s="51" t="s">
+        <v>588</v>
+      </c>
+      <c r="L109" s="52" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="14.25">
+      <c r="A110" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E110" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="F110" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="H110" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="L110" s="52" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="14.25">
+      <c r="A111" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E111" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="F111" s="10">
+        <v>18710076660</v>
+      </c>
+      <c r="H111" s="51" t="s">
+        <v>590</v>
+      </c>
+      <c r="L111" s="52" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="14.25">
+      <c r="A112" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E112" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="F112" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="H112" s="51" t="s">
+        <v>591</v>
+      </c>
+      <c r="L112" s="52" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="14.25">
+      <c r="A113" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E113" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="F113" s="23">
+        <v>13521240999</v>
+      </c>
+      <c r="H113" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="L113" s="52" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="14.25">
+      <c r="A114" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="E114" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="F114" s="23">
+        <v>15010125699</v>
+      </c>
+      <c r="H114" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="L114" s="52" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="14.25">
+      <c r="A115" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E115" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="F115" s="12">
+        <v>15801502314</v>
+      </c>
+      <c r="H115" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="L115" s="52" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="14.25">
+      <c r="A116" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E116" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="H116" s="51" t="s">
+        <v>595</v>
+      </c>
+      <c r="L116" s="52" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="14.25">
+      <c r="A117" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E117" s="44"/>
+      <c r="F117" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="H117" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="L117" s="52" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="14.25">
+      <c r="A118" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E118" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="F118" s="16">
+        <v>18611172856</v>
+      </c>
+      <c r="H118" s="51" t="s">
+        <v>597</v>
+      </c>
+      <c r="L118" s="52" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="14.25">
+      <c r="A119" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="E119" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="F119" s="11">
+        <v>13520890863</v>
+      </c>
+      <c r="H119" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="L119" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="14.25">
+      <c r="A120" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E120" s="50" t="s">
+        <v>490</v>
+      </c>
+      <c r="F120" s="11">
+        <v>13488780442</v>
+      </c>
+      <c r="H120" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="L120" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="14.25">
+      <c r="A121" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E121" s="50" t="s">
+        <v>491</v>
+      </c>
+      <c r="F121" s="38">
+        <v>18701641203</v>
+      </c>
+      <c r="H121" s="51" t="s">
+        <v>600</v>
+      </c>
+      <c r="L121" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="14.25">
+      <c r="A122" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="E122" s="44" t="s">
+        <v>492</v>
+      </c>
+      <c r="F122" s="16">
+        <v>13581588772</v>
+      </c>
+      <c r="H122" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="L122" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="14.25">
+      <c r="A123" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E123" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="H123" s="51" t="s">
+        <v>602</v>
+      </c>
+      <c r="L123" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="14.25">
+      <c r="A124" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E124" s="48"/>
+      <c r="F124" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="H124" s="51" t="s">
+        <v>603</v>
+      </c>
+      <c r="L124" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="14.25">
+      <c r="A125" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E125" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="F125" s="16">
+        <v>13910700277</v>
+      </c>
+      <c r="H125" s="51" t="s">
+        <v>604</v>
+      </c>
+      <c r="L125" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="14.25">
+      <c r="A126" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E126" s="44"/>
+      <c r="F126" s="27">
+        <v>13621156931</v>
+      </c>
+      <c r="H126" s="51" t="s">
+        <v>605</v>
+      </c>
+      <c r="L126" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="14.25">
+      <c r="A127" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="E127" s="47"/>
+      <c r="F127" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="H127" s="51" t="s">
+        <v>606</v>
+      </c>
+      <c r="L127" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="14.25">
+      <c r="A128" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="E128" s="47" t="s">
+        <v>495</v>
+      </c>
+      <c r="F128" s="27">
+        <v>13426064923</v>
+      </c>
+      <c r="H128" s="51" t="s">
+        <v>607</v>
+      </c>
+      <c r="L128" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="14.25">
+      <c r="A129" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="E129" s="48"/>
+      <c r="F129" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="H129" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="L129" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="14.25">
+      <c r="A130" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="E130" s="48"/>
+      <c r="F130" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="H130" s="51" t="s">
+        <v>603</v>
+      </c>
+      <c r="L130" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="14.25">
+      <c r="A131" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E131" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="F131" s="38">
+        <v>15811362867</v>
+      </c>
+      <c r="H131" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="L131" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="14.25">
+      <c r="A132" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="E132" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F132" s="16">
+        <v>13426241520</v>
+      </c>
+      <c r="H132" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="L132" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="14.25">
+      <c r="A133" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E133" s="47"/>
+      <c r="F133" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="H133" s="51" t="s">
+        <v>611</v>
+      </c>
+      <c r="L133" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="14.25">
+      <c r="A134" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E134" s="47" t="s">
+        <v>498</v>
+      </c>
+      <c r="F134" s="12">
+        <v>18210979088</v>
+      </c>
+      <c r="H134" s="51" t="s">
+        <v>612</v>
+      </c>
+      <c r="L134" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="14.25">
+      <c r="A135" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="E135" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="F135" s="43">
+        <v>18500191399</v>
+      </c>
+      <c r="H135" s="51" t="s">
+        <v>613</v>
+      </c>
+      <c r="L135" s="52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="14.25">
+      <c r="A136" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E136" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="F136" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="H136" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="L136" s="52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="14.25">
+      <c r="A137" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="E137" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="H137" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="L137" s="52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="14.25">
+      <c r="A138" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E138" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="F138" s="33">
+        <v>13269482403</v>
+      </c>
+      <c r="H138" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="L138" s="52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="14.25">
+      <c r="A139" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="E139" s="44" t="s">
+        <v>503</v>
+      </c>
+      <c r="F139" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="H139" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="L139" s="52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="14.25">
+      <c r="A140" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E140" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="F140" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="H140" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="L140" s="52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="14.25">
+      <c r="A141" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="E141" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="F141" s="16">
+        <v>13911173141</v>
+      </c>
+      <c r="H141" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="L141" s="52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="14.25">
+      <c r="A142" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E142" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="F142" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="H142" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="L142" s="52" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3:H26" r:id="rId2" display="test1@gmail.com"/>
+    <hyperlink ref="H135" r:id="rId1"/>
+    <hyperlink ref="H138" r:id="rId2"/>
+    <hyperlink ref="H28" r:id="rId3"/>
+    <hyperlink ref="H137" r:id="rId4"/>
+    <hyperlink ref="H140" r:id="rId5"/>
+    <hyperlink ref="H31" r:id="rId6"/>
+    <hyperlink ref="H57" r:id="rId7"/>
+    <hyperlink ref="H54" r:id="rId8"/>
+    <hyperlink ref="H32" r:id="rId9"/>
+    <hyperlink ref="H33" r:id="rId10"/>
+    <hyperlink ref="H56" r:id="rId11"/>
+    <hyperlink ref="H132" r:id="rId12"/>
+    <hyperlink ref="H125" r:id="rId13"/>
+    <hyperlink ref="H141" r:id="rId14"/>
+    <hyperlink ref="H55" r:id="rId15"/>
+    <hyperlink ref="H126" r:id="rId16"/>
+    <hyperlink ref="H51" r:id="rId17"/>
+    <hyperlink ref="H52" r:id="rId18"/>
+    <hyperlink ref="H34" r:id="rId19"/>
+    <hyperlink ref="H122" r:id="rId20"/>
+    <hyperlink ref="H50" r:id="rId21"/>
+    <hyperlink ref="H128" r:id="rId22"/>
+    <hyperlink ref="H118" r:id="rId23"/>
+    <hyperlink ref="H71" r:id="rId24"/>
+    <hyperlink ref="H46" r:id="rId25"/>
+    <hyperlink ref="H42" r:id="rId26"/>
+    <hyperlink ref="H60" r:id="rId27"/>
+    <hyperlink ref="H47" r:id="rId28"/>
+    <hyperlink ref="H43" r:id="rId29"/>
+    <hyperlink ref="H41" r:id="rId30"/>
+    <hyperlink ref="H40" r:id="rId31"/>
+    <hyperlink ref="H38" r:id="rId32"/>
+    <hyperlink ref="H39" r:id="rId33"/>
+    <hyperlink ref="H45" r:id="rId34"/>
+    <hyperlink ref="H64" r:id="rId35"/>
+    <hyperlink ref="H77" r:id="rId36"/>
+    <hyperlink ref="H68" r:id="rId37"/>
+    <hyperlink ref="H74" r:id="rId38"/>
+    <hyperlink ref="H133" r:id="rId39"/>
+    <hyperlink ref="H65" r:id="rId40"/>
+    <hyperlink ref="H70" r:id="rId41"/>
+    <hyperlink ref="H75" r:id="rId42"/>
+    <hyperlink ref="H37" r:id="rId43"/>
+    <hyperlink ref="H76" r:id="rId44"/>
+    <hyperlink ref="H72" r:id="rId45"/>
+    <hyperlink ref="H63" r:id="rId46" display="mailto:zengzhq@css.com.cn"/>
+    <hyperlink ref="H117" r:id="rId47"/>
+    <hyperlink ref="H53" r:id="rId48"/>
+    <hyperlink ref="H79" r:id="rId49" display="mailto:wangjch@css.com.cn"/>
+    <hyperlink ref="H116" r:id="rId50" display="mailto:yuanming@css.com.cn"/>
+    <hyperlink ref="H27" r:id="rId51" display="mailto:wangyang@css.com.cn"/>
+    <hyperlink ref="H134" r:id="rId52" display="mailto:lianghr@css.com.cn"/>
+    <hyperlink ref="H115" r:id="rId53" display="mailto:weixuan@css.com.cn"/>
+    <hyperlink ref="H99" r:id="rId54"/>
+    <hyperlink ref="H131" r:id="rId55"/>
+    <hyperlink ref="H61" r:id="rId56" display="mailto:wangjinqiu@css.com.cn"/>
+    <hyperlink ref="H62" r:id="rId57"/>
+    <hyperlink ref="H78" r:id="rId58" display="mailto:heych@css.com.cn"/>
+    <hyperlink ref="H80" r:id="rId59"/>
+    <hyperlink ref="H81" r:id="rId60"/>
+    <hyperlink ref="H82" r:id="rId61" display="mailto:zhoufang@css.com.cn"/>
+    <hyperlink ref="H95" r:id="rId62"/>
+    <hyperlink ref="H94" r:id="rId63"/>
+    <hyperlink ref="H48" r:id="rId64"/>
+    <hyperlink ref="H106" r:id="rId65"/>
+    <hyperlink ref="H105" r:id="rId66"/>
+    <hyperlink ref="H104" r:id="rId67"/>
+    <hyperlink ref="H103" r:id="rId68"/>
+    <hyperlink ref="H102" r:id="rId69"/>
+    <hyperlink ref="H101" r:id="rId70"/>
+    <hyperlink ref="H100" r:id="rId71"/>
+    <hyperlink ref="H93" r:id="rId72"/>
+    <hyperlink ref="H97" r:id="rId73"/>
+    <hyperlink ref="H124" r:id="rId74"/>
+    <hyperlink ref="H130" r:id="rId75"/>
+    <hyperlink ref="H58" r:id="rId76"/>
+    <hyperlink ref="H127" r:id="rId77"/>
+    <hyperlink ref="H85" r:id="rId78"/>
+    <hyperlink ref="H87" r:id="rId79"/>
+    <hyperlink ref="H88" r:id="rId80"/>
+    <hyperlink ref="H96" r:id="rId81"/>
+    <hyperlink ref="H59" r:id="rId82"/>
+    <hyperlink ref="H129" r:id="rId83"/>
+    <hyperlink ref="H89" r:id="rId84"/>
+    <hyperlink ref="H91" r:id="rId85"/>
+    <hyperlink ref="H92" r:id="rId86"/>
+    <hyperlink ref="H83" r:id="rId87"/>
+    <hyperlink ref="H84" r:id="rId88"/>
+    <hyperlink ref="H86" r:id="rId89"/>
+    <hyperlink ref="H108" r:id="rId90"/>
+    <hyperlink ref="H107" r:id="rId91"/>
+    <hyperlink ref="H109" r:id="rId92"/>
+    <hyperlink ref="H111" r:id="rId93"/>
+    <hyperlink ref="H112" r:id="rId94"/>
+    <hyperlink ref="H110" r:id="rId95"/>
+    <hyperlink ref="H120" r:id="rId96"/>
+    <hyperlink ref="H119" r:id="rId97"/>
+    <hyperlink ref="H142" r:id="rId98"/>
+    <hyperlink ref="H2" r:id="rId99"/>
+    <hyperlink ref="H3:H26" r:id="rId100" display="test1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId101"/>
 </worksheet>
 </file>
 
@@ -1987,7 +6385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2000,7 +6398,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
